--- a/data/trans_orig/P16A11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Provincia-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2751,7 +2751,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4948,7 +4948,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7145,7 +7145,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
+          <t>Población según si ha consumido medicamentos para la tensión arterial en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>33540</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24234</v>
+        <v>23781</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45320</v>
+        <v>44518</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1228511532063506</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08876776111044971</v>
+        <v>0.08710830912930234</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1660026082123952</v>
+        <v>0.163061937186727</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -765,19 +765,19 @@
         <v>38439</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26961</v>
+        <v>28629</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50450</v>
+        <v>51808</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1473675815196213</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1033613354928623</v>
+        <v>0.1097576362155911</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.193416771637757</v>
+        <v>0.1986228529985882</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>74</v>
@@ -786,19 +786,19 @@
         <v>71979</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56934</v>
+        <v>57172</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87565</v>
+        <v>88280</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.134829877469233</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1066474468231584</v>
+        <v>0.1070949023844829</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1640251946019133</v>
+        <v>0.1653652919823026</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>239470</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>227690</v>
+        <v>228492</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>248776</v>
+        <v>249229</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8771488467936494</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8339973917876059</v>
+        <v>0.8369380628132731</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9112322388895507</v>
+        <v>0.9128916908706977</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>207</v>
@@ -836,19 +836,19 @@
         <v>222399</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>210388</v>
+        <v>209030</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>233877</v>
+        <v>232209</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8526324184803786</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8065832283622431</v>
+        <v>0.8013771470014119</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8966386645071378</v>
+        <v>0.890242363784409</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>442</v>
@@ -857,19 +857,19 @@
         <v>461869</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>446283</v>
+        <v>445568</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>476914</v>
+        <v>476676</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.865170122530767</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8359748053980866</v>
+        <v>0.8346347080176968</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8933525531768416</v>
+        <v>0.8929050976155168</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>53058</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40093</v>
+        <v>39483</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67412</v>
+        <v>67468</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1076071000726473</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08131124686966036</v>
+        <v>0.08007420711855223</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.136716677204049</v>
+        <v>0.1368302312714836</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -982,19 +982,19 @@
         <v>90070</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72529</v>
+        <v>74568</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>108739</v>
+        <v>109768</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1787281338532549</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1439211930770322</v>
+        <v>0.1479680288867901</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2157733021274674</v>
+        <v>0.2178163123928706</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>139</v>
@@ -1003,19 +1003,19 @@
         <v>143128</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>123416</v>
+        <v>123058</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>166287</v>
+        <v>166410</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.143555454396734</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1237845753159177</v>
+        <v>0.1234248942931835</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1667833217518685</v>
+        <v>0.166907115102273</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>440017</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>425663</v>
+        <v>425607</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>452982</v>
+        <v>453592</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8923928999273527</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.863283322795951</v>
+        <v>0.8631697687285166</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9186887531303397</v>
+        <v>0.9199257928814478</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>411</v>
@@ -1053,19 +1053,19 @@
         <v>413879</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>395210</v>
+        <v>394181</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>431420</v>
+        <v>429381</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8212718661467451</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7842266978725331</v>
+        <v>0.7821836876071294</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8560788069229679</v>
+        <v>0.8520319711132099</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>825</v>
@@ -1074,19 +1074,19 @@
         <v>853896</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>830737</v>
+        <v>830614</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>873608</v>
+        <v>873966</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.856444545603266</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8332166782481318</v>
+        <v>0.833092884897727</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8762154246840825</v>
+        <v>0.8765751057068166</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>43574</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32519</v>
+        <v>32205</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57501</v>
+        <v>56245</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1366630470032497</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1019884022568718</v>
+        <v>0.1010039808526719</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1803415605245453</v>
+        <v>0.1764033126973111</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>65</v>
@@ -1199,19 +1199,19 @@
         <v>65773</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51411</v>
+        <v>52620</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>81010</v>
+        <v>82648</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1960947497821307</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1532757977478523</v>
+        <v>0.1568819406309545</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2415234763094679</v>
+        <v>0.2464073926963697</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>109</v>
@@ -1220,19 +1220,19 @@
         <v>109347</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>91454</v>
+        <v>92015</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>129199</v>
+        <v>129148</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1671313164689651</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1397835073072697</v>
+        <v>0.1406405867925885</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.197474727506043</v>
+        <v>0.197396376052849</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>275272</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>261345</v>
+        <v>262601</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>286327</v>
+        <v>286641</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8633369529967504</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8196584394754542</v>
+        <v>0.8235966873026889</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8980115977431282</v>
+        <v>0.8989960191473281</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>270</v>
@@ -1270,19 +1270,19 @@
         <v>269639</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>254402</v>
+        <v>252764</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>284001</v>
+        <v>282792</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8039052502178693</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7584765236905324</v>
+        <v>0.7535926073036304</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.846724202252148</v>
+        <v>0.8431180593690457</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>536</v>
@@ -1291,19 +1291,19 @@
         <v>544911</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>525059</v>
+        <v>525110</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>562804</v>
+        <v>562243</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8328686835310349</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.802525272493957</v>
+        <v>0.802603623947151</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8602164926927304</v>
+        <v>0.8593594132074116</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>47563</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36538</v>
+        <v>36595</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60718</v>
+        <v>61347</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1326094917482841</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1018710375281854</v>
+        <v>0.1020282615058658</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1692851204665892</v>
+        <v>0.1710395161199373</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -1416,19 +1416,19 @@
         <v>67821</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54560</v>
+        <v>54750</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84000</v>
+        <v>83457</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1825818463732825</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1468807485662683</v>
+        <v>0.1473923271402844</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2261372952349159</v>
+        <v>0.2246763501269395</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>122</v>
@@ -1437,19 +1437,19 @@
         <v>115384</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>96543</v>
+        <v>98579</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>134918</v>
+        <v>135882</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1580331882473887</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.132227802679661</v>
+        <v>0.1350167454185925</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1847870217228041</v>
+        <v>0.1861077752365954</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>311108</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>297953</v>
+        <v>297324</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>322133</v>
+        <v>322076</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8673905082517159</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8307148795334108</v>
+        <v>0.8289604838800627</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8981289624718146</v>
+        <v>0.8979717384941341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>313</v>
@@ -1487,19 +1487,19 @@
         <v>303635</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>287456</v>
+        <v>287999</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>316896</v>
+        <v>316706</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8174181536267175</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7738627047650843</v>
+        <v>0.7753236498730608</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8531192514337318</v>
+        <v>0.8526076728597157</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>624</v>
@@ -1508,19 +1508,19 @@
         <v>614743</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>595209</v>
+        <v>594245</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>633584</v>
+        <v>631548</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8419668117526113</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.815212978277196</v>
+        <v>0.8138922247634046</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8677721973203391</v>
+        <v>0.8649832545814077</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>17951</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11116</v>
+        <v>11007</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26404</v>
+        <v>26816</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08829696615015882</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05467331558469399</v>
+        <v>0.05413816126286951</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1298716817571368</v>
+        <v>0.1318993447822105</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -1633,19 +1633,19 @@
         <v>24898</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16331</v>
+        <v>16467</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36440</v>
+        <v>36011</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1198925833065268</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07863846328771837</v>
+        <v>0.07929443082403123</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1754746674913773</v>
+        <v>0.1734061233884859</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -1654,19 +1654,19 @@
         <v>42849</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31825</v>
+        <v>30919</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57163</v>
+        <v>54965</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.104262370186538</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0774374821046081</v>
+        <v>0.07523296209310802</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1390899017983196</v>
+        <v>0.1337425500345793</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>185357</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>176904</v>
+        <v>176492</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192192</v>
+        <v>192301</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9117030338498412</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8701283182428632</v>
+        <v>0.8681006552177895</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.945326684415306</v>
+        <v>0.9458618387371305</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>175</v>
@@ -1704,19 +1704,19 @@
         <v>182770</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>171228</v>
+        <v>171657</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>191337</v>
+        <v>191201</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8801074166934731</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8245253325086229</v>
+        <v>0.8265938766115141</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9213615367122816</v>
+        <v>0.9207055691759687</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>362</v>
@@ -1725,19 +1725,19 @@
         <v>368127</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>353813</v>
+        <v>356011</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>379151</v>
+        <v>380057</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8957376298134621</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8609100982016805</v>
+        <v>0.8662574499654209</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9225625178953919</v>
+        <v>0.9247670379068921</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>42084</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31075</v>
+        <v>31723</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53786</v>
+        <v>54566</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1553999658564541</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1147497227227799</v>
+        <v>0.1171418747319379</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1986115206523064</v>
+        <v>0.2014908036115469</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -1850,19 +1850,19 @@
         <v>53712</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41817</v>
+        <v>41992</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>68595</v>
+        <v>68363</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1931075379084216</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1503431202655928</v>
+        <v>0.1509736322601811</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.246617935896059</v>
+        <v>0.245782198950883</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>93</v>
@@ -1871,19 +1871,19 @@
         <v>95796</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>79129</v>
+        <v>78657</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>113151</v>
+        <v>113463</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1745056026471696</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1441442290137568</v>
+        <v>0.1432849407217671</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2061209253175219</v>
+        <v>0.2066891626513623</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>228727</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>217025</v>
+        <v>216245</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>239736</v>
+        <v>239088</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8446000341435459</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8013884793476934</v>
+        <v>0.7985091963884531</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8852502772772197</v>
+        <v>0.882858125268062</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>219</v>
@@ -1921,19 +1921,19 @@
         <v>224432</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>209549</v>
+        <v>209781</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>236327</v>
+        <v>236152</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8068924620915784</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7533820641039409</v>
+        <v>0.7542178010491164</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8496568797344071</v>
+        <v>0.8490263677398189</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>443</v>
@@ -1942,19 +1942,19 @@
         <v>453159</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>435804</v>
+        <v>435492</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>469826</v>
+        <v>470298</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8254943973528305</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7938790746824782</v>
+        <v>0.7933108373486377</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8558557709862433</v>
+        <v>0.8567150592782329</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>88809</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>72585</v>
+        <v>71447</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>108894</v>
+        <v>106089</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.144398675547773</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1180193039050252</v>
+        <v>0.1161685313415253</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.177055394674511</v>
+        <v>0.1724949196293849</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>118</v>
@@ -2067,19 +2067,19 @@
         <v>118630</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>98859</v>
+        <v>99582</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>138600</v>
+        <v>138966</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1858769015676186</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1548982709564857</v>
+        <v>0.1560318198399044</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2171672382423218</v>
+        <v>0.2177405153893466</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>207</v>
@@ -2088,19 +2088,19 @@
         <v>207439</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>180012</v>
+        <v>181038</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>234834</v>
+        <v>234254</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1655215776998295</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1436363571936228</v>
+        <v>0.1444555176962898</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1873802794500065</v>
+        <v>0.1869181654505458</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>526218</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>506133</v>
+        <v>508938</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>542442</v>
+        <v>543580</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.855601324452227</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.822944605325489</v>
+        <v>0.8275050803706151</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8819806960949746</v>
+        <v>0.8838314686584747</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>503</v>
@@ -2138,19 +2138,19 @@
         <v>519589</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>499619</v>
+        <v>499253</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>539360</v>
+        <v>538637</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8141230984323814</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7828327617576784</v>
+        <v>0.7822594846106534</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8451017290435143</v>
+        <v>0.8439681801600957</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1012</v>
@@ -2159,19 +2159,19 @@
         <v>1045807</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1018412</v>
+        <v>1018992</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1073234</v>
+        <v>1072208</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8344784223001704</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8126197205499935</v>
+        <v>0.813081834549454</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8563636428063771</v>
+        <v>0.8555444823037102</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>86982</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>71252</v>
+        <v>70841</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>105093</v>
+        <v>105813</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1171037028890193</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09592649465245891</v>
+        <v>0.09537274397896967</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1414862621766932</v>
+        <v>0.1424561274515556</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>94</v>
@@ -2284,19 +2284,19 @@
         <v>104041</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>85159</v>
+        <v>86656</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>125975</v>
+        <v>123600</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1327888156140636</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1086890716217887</v>
+        <v>0.1105998767698546</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1607827511891777</v>
+        <v>0.1577508981713737</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>182</v>
@@ -2305,19 +2305,19 @@
         <v>191023</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>165777</v>
+        <v>165298</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>217308</v>
+        <v>219988</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1251555642576269</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1086144048454175</v>
+        <v>0.1083004586644101</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1423766680866766</v>
+        <v>0.14413271764126</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>655795</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>637684</v>
+        <v>636964</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>671525</v>
+        <v>671936</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8828962971109807</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8585137378233068</v>
+        <v>0.8575438725484443</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9040735053475411</v>
+        <v>0.9046272560210302</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>651</v>
@@ -2355,19 +2355,19 @@
         <v>679470</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>657536</v>
+        <v>659911</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>698352</v>
+        <v>696855</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8672111843859364</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8392172488108223</v>
+        <v>0.8422491018286258</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8913109283782114</v>
+        <v>0.8894001232301451</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1298</v>
@@ -2376,19 +2376,19 @@
         <v>1335265</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1308980</v>
+        <v>1306300</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1360511</v>
+        <v>1360990</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.874844435742373</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8576233319133234</v>
+        <v>0.8558672823587402</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8913855951545825</v>
+        <v>0.8916995413355899</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>413562</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>377088</v>
+        <v>379797</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>450887</v>
+        <v>451768</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1262582732633914</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1151228848342048</v>
+        <v>0.1159498670397022</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1376532844291844</v>
+        <v>0.1379222289862497</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>548</v>
@@ -2501,19 +2501,19 @@
         <v>563384</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>523897</v>
+        <v>522641</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>608229</v>
+        <v>603517</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1667212087860317</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1550358272172512</v>
+        <v>0.1546642785561884</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.17999211453439</v>
+        <v>0.1785978354055831</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>968</v>
@@ -2522,19 +2522,19 @@
         <v>976946</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>916787</v>
+        <v>918769</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1038120</v>
+        <v>1039995</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.146804921696733</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1377649402942889</v>
+        <v>0.1380627711976847</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1559975467166324</v>
+        <v>0.1562792237040837</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2861963</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2824638</v>
+        <v>2823757</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2898437</v>
+        <v>2895728</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8737417267366087</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8623467155708157</v>
+        <v>0.8620777710137504</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8848771151657956</v>
+        <v>0.884050132960298</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2749</v>
@@ -2572,19 +2572,19 @@
         <v>2815813</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2770968</v>
+        <v>2775680</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2855300</v>
+        <v>2856556</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8332787912139683</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8200078854656099</v>
+        <v>0.8214021645944166</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8449641727827484</v>
+        <v>0.8453357214438114</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5542</v>
@@ -2593,19 +2593,19 @@
         <v>5677776</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5616602</v>
+        <v>5614727</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5737935</v>
+        <v>5735953</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.853195078303267</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.844002453283368</v>
+        <v>0.8437207762959157</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8622350597057111</v>
+        <v>0.8619372288023152</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>34954</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24291</v>
+        <v>24815</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48304</v>
+        <v>49344</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1192923767245945</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08290312375289187</v>
+        <v>0.0846904815366365</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1648551850086966</v>
+        <v>0.1684027711176111</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -2962,19 +2962,19 @@
         <v>44335</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31126</v>
+        <v>32443</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58567</v>
+        <v>57667</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1570364078544871</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1102508981297038</v>
+        <v>0.1149132308130549</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2074478510172829</v>
+        <v>0.2042574724431612</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>74</v>
@@ -2983,19 +2983,19 @@
         <v>79289</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62836</v>
+        <v>64003</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>97388</v>
+        <v>97832</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1378138569136509</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1092165819640961</v>
+        <v>0.1112452003253307</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1692730734230609</v>
+        <v>0.1700433786883836</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>258055</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>244705</v>
+        <v>243665</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>268718</v>
+        <v>268194</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8807076232754054</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8351448149913034</v>
+        <v>0.8315972288823889</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9170968762471082</v>
+        <v>0.9153095184633633</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>210</v>
@@ -3033,19 +3033,19 @@
         <v>237988</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>223756</v>
+        <v>224656</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>251197</v>
+        <v>249880</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.842963592145513</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7925521489827171</v>
+        <v>0.7957425275568388</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8897491018702962</v>
+        <v>0.8850867691869451</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>458</v>
@@ -3054,19 +3054,19 @@
         <v>496044</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>477945</v>
+        <v>477501</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>512497</v>
+        <v>511330</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8621861430863491</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8307269265769391</v>
+        <v>0.8299566213116165</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.890783418035904</v>
+        <v>0.8887547996746694</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>80010</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62306</v>
+        <v>63622</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>97996</v>
+        <v>99137</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1582709130659186</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1232494781437429</v>
+        <v>0.125851891822967</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1938490457816753</v>
+        <v>0.1961054619204461</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>98</v>
@@ -3179,19 +3179,19 @@
         <v>107062</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>88991</v>
+        <v>90253</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>127831</v>
+        <v>128596</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2048119239982208</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1702418240639615</v>
+        <v>0.1726566421914598</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2445439165419886</v>
+        <v>0.2460079513286493</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>169</v>
@@ -3200,19 +3200,19 @@
         <v>187072</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>162316</v>
+        <v>162511</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>216295</v>
+        <v>211502</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1819307513938017</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1578551133978848</v>
+        <v>0.1580451533622606</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2103504670230797</v>
+        <v>0.2056898212873796</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>425517</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>407531</v>
+        <v>406390</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>443221</v>
+        <v>441905</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8417290869340814</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8061509542183252</v>
+        <v>0.8038945380795538</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8767505218562573</v>
+        <v>0.8741481081770329</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>381</v>
@@ -3250,19 +3250,19 @@
         <v>415669</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>394900</v>
+        <v>394135</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>433740</v>
+        <v>432478</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7951880760017792</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7554560834580111</v>
+        <v>0.7539920486713507</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8297581759360384</v>
+        <v>0.8273433578085403</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>782</v>
@@ -3271,19 +3271,19 @@
         <v>841186</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>811963</v>
+        <v>816756</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>865942</v>
+        <v>865747</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8180692486061982</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7896495329769204</v>
+        <v>0.7943101787126203</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8421448866021158</v>
+        <v>0.8419548466377395</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>59003</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45940</v>
+        <v>45176</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74361</v>
+        <v>72904</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1826060433863771</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1421766559907699</v>
+        <v>0.1398133438163096</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2301358975297398</v>
+        <v>0.2256282942957046</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -3396,19 +3396,19 @@
         <v>77878</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63943</v>
+        <v>63334</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>96310</v>
+        <v>95779</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2283683345309434</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1875045045596419</v>
+        <v>0.1857205417514705</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2824170330782871</v>
+        <v>0.2808592082112752</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>126</v>
@@ -3417,19 +3417,19 @@
         <v>136881</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>116975</v>
+        <v>116424</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>157103</v>
+        <v>157722</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2061040227927912</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1761310631151645</v>
+        <v>0.1753011212225051</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2365521775572509</v>
+        <v>0.2374844260699557</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>264113</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>248755</v>
+        <v>250212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>277176</v>
+        <v>277940</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8173939566136229</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7698641024702602</v>
+        <v>0.7743717057042954</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8578233440092299</v>
+        <v>0.8601866561836904</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>246</v>
@@ -3467,19 +3467,19 @@
         <v>263142</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>244710</v>
+        <v>245241</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>277077</v>
+        <v>277686</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7716316654690566</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7175829669217128</v>
+        <v>0.7191407917887248</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8124954954403577</v>
+        <v>0.8142794582485293</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>509</v>
@@ -3488,19 +3488,19 @@
         <v>527255</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>507033</v>
+        <v>506414</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>547161</v>
+        <v>547712</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7938959772072088</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7634478224427491</v>
+        <v>0.7625155739300443</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8238689368848358</v>
+        <v>0.8246988787774949</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>68375</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53027</v>
+        <v>53630</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85165</v>
+        <v>85515</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1828299796764729</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1417896011190856</v>
+        <v>0.1434037850047084</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2277257037241762</v>
+        <v>0.2286609552846436</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>94</v>
@@ -3613,19 +3613,19 @@
         <v>95960</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78920</v>
+        <v>80001</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>112487</v>
+        <v>113766</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2473371698059444</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2034163801296191</v>
+        <v>0.2062012714992941</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2899340406501317</v>
+        <v>0.2932302402693268</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>154</v>
@@ -3634,19 +3634,19 @@
         <v>164336</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>141564</v>
+        <v>142326</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>187524</v>
+        <v>189034</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2156758604367316</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1857899980323761</v>
+        <v>0.1867904155334613</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2461086295680141</v>
+        <v>0.248090836716503</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>305607</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>288817</v>
+        <v>288467</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>320955</v>
+        <v>320352</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.817170020323527</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7722742962758239</v>
+        <v>0.7713390447153564</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8582103988809144</v>
+        <v>0.8565962149952916</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>276</v>
@@ -3684,19 +3684,19 @@
         <v>292014</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>275487</v>
+        <v>274208</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>309054</v>
+        <v>307973</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7526628301940557</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7100659593498683</v>
+        <v>0.7067697597306732</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7965836198703808</v>
+        <v>0.7937987285007058</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>560</v>
@@ -3705,19 +3705,19 @@
         <v>597620</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>574432</v>
+        <v>572922</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>620392</v>
+        <v>619630</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7843241395632684</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7538913704319856</v>
+        <v>0.7519091632834969</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8142100019676239</v>
+        <v>0.8132095844665386</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>33103</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22935</v>
+        <v>23494</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45296</v>
+        <v>45893</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1556941126024724</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1078704675055836</v>
+        <v>0.1104983581292293</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2130401443839278</v>
+        <v>0.2158459936530451</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -3830,19 +3830,19 @@
         <v>57874</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45657</v>
+        <v>45198</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72387</v>
+        <v>71901</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2635520636544011</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2079168061898633</v>
+        <v>0.2058266155647752</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3296439924702704</v>
+        <v>0.327431513836102</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>85</v>
@@ -3851,19 +3851,19 @@
         <v>90977</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>73505</v>
+        <v>73847</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>108182</v>
+        <v>109735</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2104931407861518</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1700686811845822</v>
+        <v>0.1708602429343672</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2502999029571955</v>
+        <v>0.2538929759818888</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>179515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>167322</v>
+        <v>166725</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>189683</v>
+        <v>189124</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8443058873975277</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.786959855616072</v>
+        <v>0.784154006346955</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8921295324944163</v>
+        <v>0.8895016418707707</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>157</v>
@@ -3901,19 +3901,19 @@
         <v>161717</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>147204</v>
+        <v>147690</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>173934</v>
+        <v>174393</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7364479363455989</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6703560075297296</v>
+        <v>0.672568486163898</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7920831938101366</v>
+        <v>0.7941733844352248</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>323</v>
@@ -3922,19 +3922,19 @@
         <v>341232</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>324027</v>
+        <v>322474</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>358704</v>
+        <v>358362</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7895068592138481</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7497000970428045</v>
+        <v>0.7461070240181112</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8299313188154178</v>
+        <v>0.8291397570656328</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>62777</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49808</v>
+        <v>49769</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>77219</v>
+        <v>78838</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2291294929420586</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1817926703233554</v>
+        <v>0.1816510066906614</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2818401659736823</v>
+        <v>0.2877511395467031</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>61</v>
@@ -4047,19 +4047,19 @@
         <v>63564</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>49416</v>
+        <v>49893</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>78611</v>
+        <v>78237</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.227714375853952</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1770287775470138</v>
+        <v>0.178739943790946</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2816182123281661</v>
+        <v>0.2802791503096504</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>122</v>
@@ -4068,19 +4068,19 @@
         <v>126341</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>106521</v>
+        <v>107206</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>145505</v>
+        <v>146803</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2284153344718675</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1925818648022751</v>
+        <v>0.1938206584863263</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2630621925795682</v>
+        <v>0.2654085305751763</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>211204</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>196762</v>
+        <v>195143</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>224173</v>
+        <v>224212</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7708705070579415</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7181598340263177</v>
+        <v>0.7122488604532969</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8182073296766447</v>
+        <v>0.8183489933093386</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>207</v>
@@ -4118,19 +4118,19 @@
         <v>215576</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>200529</v>
+        <v>200903</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>229724</v>
+        <v>229247</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.772285624146048</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7183817876718339</v>
+        <v>0.7197208496903494</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8229712224529862</v>
+        <v>0.8212600562090538</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>407</v>
@@ -4139,19 +4139,19 @@
         <v>426780</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>407616</v>
+        <v>406318</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>446600</v>
+        <v>445915</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7715846655281325</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7369378074204318</v>
+        <v>0.7345914694248236</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8074181351977249</v>
+        <v>0.8061793415136735</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>120839</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>99976</v>
+        <v>102398</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>142715</v>
+        <v>145675</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1823186527893526</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1508422114933118</v>
+        <v>0.1544955337559767</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2153248367378458</v>
+        <v>0.2197916149586844</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>143</v>
@@ -4264,19 +4264,19 @@
         <v>159037</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>138707</v>
+        <v>135023</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>181908</v>
+        <v>182377</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.229208780166927</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1999086771141922</v>
+        <v>0.1945982811502205</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2621704218318959</v>
+        <v>0.2628464895848732</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>254</v>
@@ -4285,19 +4285,19 @@
         <v>279876</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>249485</v>
+        <v>248972</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>309665</v>
+        <v>311014</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2063005713214779</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1838989902929941</v>
+        <v>0.1835208253773722</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2282589808011531</v>
+        <v>0.2292528987336686</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>541949</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>520073</v>
+        <v>517113</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>562812</v>
+        <v>560390</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8176813472106474</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7846751632621543</v>
+        <v>0.7802083850413154</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8491577885066881</v>
+        <v>0.8455044662440226</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>493</v>
@@ -4335,19 +4335,19 @@
         <v>534816</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>511945</v>
+        <v>511476</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>555146</v>
+        <v>558830</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.770791219833073</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7378295781681041</v>
+        <v>0.7371535104151268</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8000913228858079</v>
+        <v>0.8054017188497795</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1000</v>
@@ -4356,19 +4356,19 @@
         <v>1076765</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1046976</v>
+        <v>1045627</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1107156</v>
+        <v>1107669</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7936994286785221</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.771741019198847</v>
+        <v>0.7707471012663314</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8161010097070061</v>
+        <v>0.816479174622628</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>110293</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>91398</v>
+        <v>92095</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>133382</v>
+        <v>135160</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.141951987027236</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1176340614235112</v>
+        <v>0.1185306176507143</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1716686227338638</v>
+        <v>0.173957426815631</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>124</v>
@@ -4481,19 +4481,19 @@
         <v>135830</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>114346</v>
+        <v>115425</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>159263</v>
+        <v>158178</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.165566886811101</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1393792378312417</v>
+        <v>0.1406948713559653</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1941302244001709</v>
+        <v>0.1928066275510354</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>222</v>
@@ -4502,19 +4502,19 @@
         <v>246123</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>217480</v>
+        <v>215242</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>276460</v>
+        <v>274963</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1540804130999728</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1361489170952338</v>
+        <v>0.1347478555929457</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1730726030051053</v>
+        <v>0.1721350227817662</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>666679</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>643590</v>
+        <v>641812</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>685574</v>
+        <v>684877</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.858048012972764</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8283313772661363</v>
+        <v>0.826042573184369</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8823659385764888</v>
+        <v>0.8814693823492857</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>630</v>
@@ -4552,19 +4552,19 @@
         <v>684565</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>661132</v>
+        <v>662217</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>706049</v>
+        <v>704970</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.834433113188899</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8058697755998291</v>
+        <v>0.8071933724489638</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8606207621687583</v>
+        <v>0.8593051286440345</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1247</v>
@@ -4573,19 +4573,19 @@
         <v>1351244</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1320907</v>
+        <v>1322404</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1379887</v>
+        <v>1382125</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8459195869000272</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8269273969948948</v>
+        <v>0.8278649772182337</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8638510829047666</v>
+        <v>0.8652521444070543</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>569354</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>527706</v>
+        <v>514500</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>615411</v>
+        <v>611510</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1663807706519331</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.154210031930439</v>
+        <v>0.150350976944291</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1798397490374349</v>
+        <v>0.1787000417900621</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>688</v>
@@ -4698,19 +4698,19 @@
         <v>741541</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>688015</v>
+        <v>697512</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>790975</v>
+        <v>793019</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.209059701032602</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.193969569612159</v>
+        <v>0.1966468755524213</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2229966806479228</v>
+        <v>0.2235727193707665</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1206</v>
@@ -4719,19 +4719,19 @@
         <v>1310894</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1240389</v>
+        <v>1246686</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1376728</v>
+        <v>1379402</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1881030942623475</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1779861242379628</v>
+        <v>0.1788897491775781</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1975497307028977</v>
+        <v>0.1979334361481288</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2852640</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2806583</v>
+        <v>2810484</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2894288</v>
+        <v>2907494</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8336192293480669</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.820160250962565</v>
+        <v>0.8212999582099378</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8457899680695609</v>
+        <v>0.8496490230557089</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2600</v>
@@ -4769,19 +4769,19 @@
         <v>2805487</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2756053</v>
+        <v>2754009</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2859013</v>
+        <v>2849516</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.790940298967398</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7770033193520772</v>
+        <v>0.7764272806292336</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8060304303878411</v>
+        <v>0.8033531244475789</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5286</v>
@@ -4790,19 +4790,19 @@
         <v>5658127</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5592293</v>
+        <v>5589619</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5728632</v>
+        <v>5722335</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8118969057376525</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8024502692971023</v>
+        <v>0.8020665638518713</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8220138757620372</v>
+        <v>0.8211102508224221</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>30058</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20914</v>
+        <v>20815</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40880</v>
+        <v>42419</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1023198368668141</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0711945082154077</v>
+        <v>0.07085691353462563</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1391597432273584</v>
+        <v>0.1443984859150489</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -5159,19 +5159,19 @@
         <v>36738</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26532</v>
+        <v>26065</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50926</v>
+        <v>50560</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1272518901480284</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09190054562017405</v>
+        <v>0.09028383417374861</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1763968060953103</v>
+        <v>0.1751292434227614</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -5180,19 +5180,19 @@
         <v>66796</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51182</v>
+        <v>52168</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83304</v>
+        <v>84145</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1146776110234629</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08787104400905231</v>
+        <v>0.0895634990628783</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1430195943899511</v>
+        <v>0.1444633847387236</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>263703</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>252881</v>
+        <v>251342</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>272847</v>
+        <v>272946</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8976801631331859</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8608402567726416</v>
+        <v>0.8556015140849512</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9288054917845924</v>
+        <v>0.9291430864653744</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>244</v>
@@ -5230,19 +5230,19 @@
         <v>251965</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>237777</v>
+        <v>238143</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>262171</v>
+        <v>262638</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8727481098519716</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8236031939046898</v>
+        <v>0.8248707565772386</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9080994543798261</v>
+        <v>0.9097161658262515</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>481</v>
@@ -5251,19 +5251,19 @@
         <v>515668</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>499160</v>
+        <v>498319</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>531282</v>
+        <v>530296</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.885322388976537</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8569804056100491</v>
+        <v>0.8555366152612764</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9121289559909478</v>
+        <v>0.9104365009371217</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>80443</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65610</v>
+        <v>65460</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>99133</v>
+        <v>98400</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1600623962117975</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1305482556431072</v>
+        <v>0.1302498160942704</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1972510816888138</v>
+        <v>0.1957915957889429</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>100</v>
@@ -5376,19 +5376,19 @@
         <v>118153</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>99853</v>
+        <v>97984</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>139130</v>
+        <v>140760</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.225878275898972</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1908922982235094</v>
+        <v>0.1873202758817655</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2659801177396028</v>
+        <v>0.2690962462540973</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>176</v>
@@ -5397,19 +5397,19 @@
         <v>198597</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>171941</v>
+        <v>172938</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>224220</v>
+        <v>224424</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1936283489064519</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1676393796248355</v>
+        <v>0.1686116486945623</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2186103736447479</v>
+        <v>0.2188093203036686</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>422132</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>403442</v>
+        <v>404175</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>436965</v>
+        <v>437115</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8399376037882025</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8027489183111863</v>
+        <v>0.8042084042110571</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8694517443568934</v>
+        <v>0.86975018390573</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>384</v>
@@ -5447,19 +5447,19 @@
         <v>404931</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>383954</v>
+        <v>382324</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>423231</v>
+        <v>425100</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.774121724101028</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7340198822603972</v>
+        <v>0.7309037537459027</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8091077017764906</v>
+        <v>0.8126797241182344</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>783</v>
@@ -5468,19 +5468,19 @@
         <v>827062</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>801439</v>
+        <v>801235</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>853718</v>
+        <v>852721</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.806371651093548</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7813896263552521</v>
+        <v>0.7811906796963315</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8323606203751645</v>
+        <v>0.8313883513054378</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>48748</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37425</v>
+        <v>38642</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62380</v>
+        <v>62938</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1530240580505677</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1174791394447258</v>
+        <v>0.1213003290980594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1958146695737514</v>
+        <v>0.1975684335195748</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -5593,19 +5593,19 @@
         <v>52169</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39887</v>
+        <v>39096</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68149</v>
+        <v>68330</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1551230501788096</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1186019726814169</v>
+        <v>0.1162488784302596</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2026368732574487</v>
+        <v>0.2031750197776598</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>99</v>
@@ -5614,19 +5614,19 @@
         <v>100917</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>84458</v>
+        <v>83696</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>122308</v>
+        <v>119771</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1541019905204467</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1289680497647435</v>
+        <v>0.1278049636194223</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1867663370165384</v>
+        <v>0.1828919861945385</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>269817</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>256185</v>
+        <v>255627</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>281140</v>
+        <v>279923</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8469759419494323</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8041853304262486</v>
+        <v>0.8024315664804252</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8825208605552742</v>
+        <v>0.8786996709019406</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>286</v>
@@ -5664,19 +5664,19 @@
         <v>284140</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>268160</v>
+        <v>267979</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>296422</v>
+        <v>297213</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8448769498211903</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7973631267425513</v>
+        <v>0.7968249802223402</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.881398027318583</v>
+        <v>0.8837511215697403</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>568</v>
@@ -5685,19 +5685,19 @@
         <v>553957</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>532566</v>
+        <v>535103</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>570416</v>
+        <v>571178</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8458980094795533</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8132336629834616</v>
+        <v>0.8171080138054615</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8710319502352565</v>
+        <v>0.8721950363805785</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>62207</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49135</v>
+        <v>48166</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77071</v>
+        <v>77182</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.168142948638557</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1328108906959805</v>
+        <v>0.1301920844439919</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2083204067062859</v>
+        <v>0.2086190243947424</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -5810,19 +5810,19 @@
         <v>83555</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65599</v>
+        <v>67695</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102600</v>
+        <v>101911</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2157468374330461</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1693829664585054</v>
+        <v>0.1747958188016431</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2649232284610203</v>
+        <v>0.2631439345391598</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -5831,19 +5831,19 @@
         <v>145762</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>125159</v>
+        <v>125153</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>169644</v>
+        <v>171418</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1924892675120657</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1652821429685158</v>
+        <v>0.1652742306747282</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2240267804031272</v>
+        <v>0.2263700089776803</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>307757</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>292893</v>
+        <v>292782</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>320829</v>
+        <v>321798</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8318570513614429</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7916795932937141</v>
+        <v>0.7913809756052577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8671891093040194</v>
+        <v>0.869807915556008</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>289</v>
@@ -5881,19 +5881,19 @@
         <v>303728</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>284683</v>
+        <v>285372</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>321684</v>
+        <v>319588</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7842531625669539</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7350767715389797</v>
+        <v>0.7368560654608403</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8306170335414945</v>
+        <v>0.8252041811983568</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>577</v>
@@ -5902,19 +5902,19 @@
         <v>611485</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>587603</v>
+        <v>585829</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>632088</v>
+        <v>632094</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8075107324879343</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.775973219596873</v>
+        <v>0.77362999102232</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8347178570314843</v>
+        <v>0.8347257693252719</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>22973</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14508</v>
+        <v>14691</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33890</v>
+        <v>33669</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1087617182412583</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06868683785544211</v>
+        <v>0.06955128665250114</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1604483358428204</v>
+        <v>0.1593996769960556</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -6027,19 +6027,19 @@
         <v>42275</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32108</v>
+        <v>32319</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55165</v>
+        <v>55066</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1934026070724303</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1468867893779632</v>
+        <v>0.1478557312594009</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2523728359642066</v>
+        <v>0.2519195124355817</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -6048,19 +6048,19 @@
         <v>65248</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50213</v>
+        <v>52019</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>81158</v>
+        <v>81451</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1518074457332819</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1168269598507441</v>
+        <v>0.121028585622069</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1888234891693708</v>
+        <v>0.18950643393533</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>188248</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>177331</v>
+        <v>177552</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196713</v>
+        <v>196530</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8912382817587416</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8395516641571795</v>
+        <v>0.8406003230039444</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9313131621445579</v>
+        <v>0.9304487133474989</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>183</v>
@@ -6098,19 +6098,19 @@
         <v>176312</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>163422</v>
+        <v>163521</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>186479</v>
+        <v>186268</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8065973929275697</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7476271640357933</v>
+        <v>0.7480804875644183</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8531132106220367</v>
+        <v>0.8521442687405992</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>372</v>
@@ -6119,19 +6119,19 @@
         <v>364560</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>348650</v>
+        <v>348357</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>379595</v>
+        <v>377789</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8481925542667181</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8111765108306291</v>
+        <v>0.81049356606467</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8831730401492558</v>
+        <v>0.8789714143779311</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>36212</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26823</v>
+        <v>26287</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48253</v>
+        <v>47772</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1376236204034884</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1019411426093443</v>
+        <v>0.09990311051715006</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1833843205734758</v>
+        <v>0.1815580749886785</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -6244,19 +6244,19 @@
         <v>45375</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34475</v>
+        <v>33716</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59765</v>
+        <v>58350</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1661380453523792</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1262282725233159</v>
+        <v>0.1234481467972078</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2188271433245671</v>
+        <v>0.2136468550761025</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>80</v>
@@ -6265,19 +6265,19 @@
         <v>81587</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>64541</v>
+        <v>67528</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>98747</v>
+        <v>98864</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.152146494925443</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1203589607004409</v>
+        <v>0.1259284281437139</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1841473851452718</v>
+        <v>0.1843666926209281</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>226911</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>214870</v>
+        <v>215351</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236300</v>
+        <v>236836</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8623763795965116</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8166156794265241</v>
+        <v>0.8184419250113215</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8980588573906556</v>
+        <v>0.9000968894828498</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>222</v>
@@ -6315,19 +6315,19 @@
         <v>227740</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>213350</v>
+        <v>214765</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>238640</v>
+        <v>239399</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8338619546476207</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7811728566754336</v>
+        <v>0.7863531449238976</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8737717274766843</v>
+        <v>0.8765518532027925</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>442</v>
@@ -6336,19 +6336,19 @@
         <v>454651</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>437491</v>
+        <v>437374</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>471697</v>
+        <v>468710</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.847853505074557</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8158526148547282</v>
+        <v>0.815633307379072</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8796410392995591</v>
+        <v>0.8740715718562863</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>96985</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>79460</v>
+        <v>79199</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>116169</v>
+        <v>117984</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1477172703384394</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1210253623935314</v>
+        <v>0.1206278381606758</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1769359108840241</v>
+        <v>0.1797013478024874</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>83</v>
@@ -6461,19 +6461,19 @@
         <v>97848</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>79784</v>
+        <v>78438</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>120028</v>
+        <v>117487</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1415425817926156</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1154122138271376</v>
+        <v>0.1134648101529981</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1736286343717754</v>
+        <v>0.1699517639395537</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>173</v>
@@ -6482,19 +6482,19 @@
         <v>194832</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>171468</v>
+        <v>170052</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>224172</v>
+        <v>225168</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1445503609490664</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1272159859324513</v>
+        <v>0.1261652835686679</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1663181628221069</v>
+        <v>0.1670569743084184</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>559573</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>540389</v>
+        <v>538574</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>577098</v>
+        <v>577359</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8522827296615606</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8230640891159761</v>
+        <v>0.820298652197513</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8789746376064688</v>
+        <v>0.8793721618393247</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>563</v>
@@ -6532,19 +6532,19 @@
         <v>593446</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>571266</v>
+        <v>573807</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>611510</v>
+        <v>612856</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8584574182073844</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8263713656282243</v>
+        <v>0.830048236060446</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8845877861728624</v>
+        <v>0.8865351898470017</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1053</v>
@@ -6553,19 +6553,19 @@
         <v>1153020</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1123680</v>
+        <v>1122684</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1176384</v>
+        <v>1177800</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8554496390509336</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.833681837177893</v>
+        <v>0.8329430256915815</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8727840140675487</v>
+        <v>0.8738347164313321</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>125962</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>106337</v>
+        <v>104401</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>146871</v>
+        <v>147378</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1617840946272054</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1365773206139775</v>
+        <v>0.1340904103878006</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1886391573204799</v>
+        <v>0.1892904484675124</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>125</v>
@@ -6678,19 +6678,19 @@
         <v>153411</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>129848</v>
+        <v>130850</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>182761</v>
+        <v>179442</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1856895258207504</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.157169186362092</v>
+        <v>0.1583822598166826</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2212155448378987</v>
+        <v>0.217197620327731</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>250</v>
@@ -6699,19 +6699,19 @@
         <v>279373</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>251781</v>
+        <v>248408</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>313213</v>
+        <v>312218</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.17409123183578</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1568974196406728</v>
+        <v>0.1547955190401347</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1951788121108416</v>
+        <v>0.1945588546318523</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>652621</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>631712</v>
+        <v>631205</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>672246</v>
+        <v>674182</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8382159053727947</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.81136084267952</v>
+        <v>0.8107095515324876</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8634226793860226</v>
+        <v>0.8659095896121994</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>630</v>
@@ -6749,19 +6749,19 @@
         <v>672756</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>643406</v>
+        <v>646725</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>696319</v>
+        <v>695317</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8143104741792496</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7787844551621022</v>
+        <v>0.7828023796722695</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.842830813637908</v>
+        <v>0.8416177401833177</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1255</v>
@@ -6770,19 +6770,19 @@
         <v>1325377</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1291537</v>
+        <v>1292532</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1352969</v>
+        <v>1356342</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.82590876816422</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8048211878891582</v>
+        <v>0.8054411453681476</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8431025803593269</v>
+        <v>0.8452044809598652</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>503588</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>465253</v>
+        <v>466414</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>549938</v>
+        <v>548519</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1483606250497135</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1370669327622598</v>
+        <v>0.1374089668870654</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1620158065290756</v>
+        <v>0.1615976509356556</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>537</v>
@@ -6895,19 +6895,19 @@
         <v>629524</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>580170</v>
+        <v>584537</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>683603</v>
+        <v>679346</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1776037240304301</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.163679838705307</v>
+        <v>0.1649119799062983</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1928606882783192</v>
+        <v>0.1916597855280309</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1038</v>
@@ -6916,19 +6916,19 @@
         <v>1133112</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1072922</v>
+        <v>1070711</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1197681</v>
+        <v>1192909</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1632986565693131</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1546243970722453</v>
+        <v>0.1543057590977272</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1726040855302522</v>
+        <v>0.1719163951746582</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2890762</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2844412</v>
+        <v>2845831</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2929097</v>
+        <v>2927936</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8516393749502865</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.837984193470924</v>
+        <v>0.8384023490643441</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8629330672377402</v>
+        <v>0.8625910331129346</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2801</v>
@@ -6966,19 +6966,19 @@
         <v>2915018</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2860939</v>
+        <v>2865196</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2964372</v>
+        <v>2960005</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8223962759695699</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.807139311721681</v>
+        <v>0.8083402144719691</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8363201612946931</v>
+        <v>0.8350880200937016</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5531</v>
@@ -6987,19 +6987,19 @@
         <v>5805780</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5741211</v>
+        <v>5745983</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5865970</v>
+        <v>5868181</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8367013434306869</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8273959144697478</v>
+        <v>0.8280836048253416</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8453756029277547</v>
+        <v>0.8456942409022727</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>66625</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52735</v>
+        <v>55105</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81096</v>
+        <v>81863</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2089580009456078</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1653947133833691</v>
+        <v>0.172827638167792</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2543417962129922</v>
+        <v>0.2567476074623265</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>112</v>
@@ -7356,19 +7356,19 @@
         <v>55202</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45856</v>
+        <v>46005</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65549</v>
+        <v>65142</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1746550094015046</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1450862664605193</v>
+        <v>0.1455565793306986</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2073944834656501</v>
+        <v>0.2061059693193407</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>194</v>
@@ -7377,19 +7377,19 @@
         <v>121827</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>108490</v>
+        <v>105384</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>142941</v>
+        <v>140132</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1918817300330485</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1708762491061724</v>
+        <v>0.1659837164687843</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2251376576951426</v>
+        <v>0.2207129816834758</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>252220</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>237749</v>
+        <v>236982</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>266110</v>
+        <v>263740</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7910419990543921</v>
+        <v>0.7910419990543923</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7456582037870076</v>
+        <v>0.7432523925376734</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8346052866166308</v>
+        <v>0.827172361832208</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>426</v>
@@ -7427,19 +7427,19 @@
         <v>260859</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>250512</v>
+        <v>250919</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>270205</v>
+        <v>270056</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8253449905984954</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.79260551653435</v>
+        <v>0.7938940306806593</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8549137335394805</v>
+        <v>0.8544434206693016</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>675</v>
@@ -7448,19 +7448,19 @@
         <v>513079</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>491965</v>
+        <v>494774</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>526416</v>
+        <v>529522</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8081182699669516</v>
+        <v>0.8081182699669515</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7748623423048573</v>
+        <v>0.7792870183165244</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8291237508938277</v>
+        <v>0.8340162835312157</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>79850</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61757</v>
+        <v>64501</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98454</v>
+        <v>99192</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1510198144703024</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1168007830423056</v>
+        <v>0.1219898877437836</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1862058216163232</v>
+        <v>0.1876026680442335</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>127</v>
@@ -7573,19 +7573,19 @@
         <v>82827</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69479</v>
+        <v>70011</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>99030</v>
+        <v>97294</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1519161759453483</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1274338056325634</v>
+        <v>0.1284104507925843</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1816360249193169</v>
+        <v>0.1784511457723792</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>202</v>
@@ -7594,19 +7594,19 @@
         <v>162677</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>143869</v>
+        <v>140304</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>188381</v>
+        <v>185168</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1514748709277568</v>
+        <v>0.1514748709277567</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1339620331566343</v>
+        <v>0.1306428941040938</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.175409534580368</v>
+        <v>0.1724179124384556</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>448887</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>430283</v>
+        <v>429545</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>466980</v>
+        <v>464236</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8489801855296977</v>
+        <v>0.8489801855296976</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.813794178383677</v>
+        <v>0.8123973319557666</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8831992169576943</v>
+        <v>0.8780101122562162</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>588</v>
@@ -7644,19 +7644,19 @@
         <v>462386</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>446183</v>
+        <v>447919</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>475734</v>
+        <v>475202</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8480838240546517</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8183639750806833</v>
+        <v>0.8215488542276209</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8725661943674367</v>
+        <v>0.8715895492074157</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>893</v>
@@ -7665,19 +7665,19 @@
         <v>911274</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>885570</v>
+        <v>888783</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>930082</v>
+        <v>933647</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8485251290722432</v>
+        <v>0.8485251290722431</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8245904654196319</v>
+        <v>0.8275820875615444</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.866037966843366</v>
+        <v>0.8693571058959063</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>67838</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55964</v>
+        <v>56350</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81661</v>
+        <v>80759</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2146830879347626</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.17710623818354</v>
+        <v>0.1783255774025859</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2584251461977344</v>
+        <v>0.2555709973910206</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>158</v>
@@ -7790,19 +7790,19 @@
         <v>84918</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72194</v>
+        <v>72627</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>97144</v>
+        <v>97537</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2382784540609477</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.202575334574694</v>
+        <v>0.203789981730171</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2725852469429382</v>
+        <v>0.2736879790347806</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>261</v>
@@ -7811,19 +7811,19 @@
         <v>152756</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>136938</v>
+        <v>135817</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>170988</v>
+        <v>170939</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2271894290359277</v>
+        <v>0.2271894290359276</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2036623920032972</v>
+        <v>0.2019959272370027</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2543041124387974</v>
+        <v>0.2542320993830378</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>248155</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>234332</v>
+        <v>235234</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>260029</v>
+        <v>259643</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7853169120652373</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7415748538022658</v>
+        <v>0.7444290026089795</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8228937618164601</v>
+        <v>0.8216744225974142</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>378</v>
@@ -7861,19 +7861,19 @@
         <v>271463</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>259237</v>
+        <v>258844</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>284187</v>
+        <v>283754</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7617215459390524</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7274147530570616</v>
+        <v>0.7263120209652194</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7974246654253059</v>
+        <v>0.796210018269829</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>635</v>
@@ -7882,19 +7882,19 @@
         <v>519619</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>501387</v>
+        <v>501436</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>535437</v>
+        <v>536558</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7728105709640725</v>
+        <v>0.7728105709640722</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7456958875612029</v>
+        <v>0.7457679006169625</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7963376079967029</v>
+        <v>0.7980040727629975</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>69025</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55209</v>
+        <v>53478</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86202</v>
+        <v>85834</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1849807436017278</v>
+        <v>0.1849807436017279</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.147956529834002</v>
+        <v>0.1433179413335469</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2310154540060098</v>
+        <v>0.2300296101584562</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>190</v>
@@ -8007,19 +8007,19 @@
         <v>89778</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76312</v>
+        <v>76918</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102726</v>
+        <v>102997</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2127634821694734</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1808504047643526</v>
+        <v>0.1822866783934929</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2434501283883105</v>
+        <v>0.2440905516649411</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>273</v>
@@ -8028,19 +8028,19 @@
         <v>158803</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>139287</v>
+        <v>139780</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>178699</v>
+        <v>180572</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1997249841502176</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1751795822312396</v>
+        <v>0.1758006591065725</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2247479998933113</v>
+        <v>0.2271042496829228</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>304120</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>286943</v>
+        <v>287311</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>317936</v>
+        <v>319667</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8150192563982721</v>
+        <v>0.8150192563982722</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7689845459939898</v>
+        <v>0.7699703898415436</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8520434701659978</v>
+        <v>0.856682058666453</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>409</v>
@@ -8078,19 +8078,19 @@
         <v>332183</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>319235</v>
+        <v>318964</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>345649</v>
+        <v>345043</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7872365178305267</v>
+        <v>0.7872365178305268</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7565498716116896</v>
+        <v>0.7559094483350588</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8191495952356476</v>
+        <v>0.8177133216065071</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>618</v>
@@ -8099,19 +8099,19 @@
         <v>636304</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>616408</v>
+        <v>614535</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>655820</v>
+        <v>655327</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8002750158497826</v>
+        <v>0.8002750158497824</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7752520001066886</v>
+        <v>0.7728957503170771</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8248204177687603</v>
+        <v>0.8241993408934274</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>36407</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29232</v>
+        <v>29005</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46581</v>
+        <v>45625</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1770190247773874</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1421322717994069</v>
+        <v>0.1410290680503608</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2264891706039348</v>
+        <v>0.2218411836391527</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>150</v>
@@ -8224,19 +8224,19 @@
         <v>57351</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49184</v>
+        <v>49018</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66004</v>
+        <v>66216</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.252407235185818</v>
+        <v>0.2524072351858179</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2164642910287945</v>
+        <v>0.215735031292491</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2904901962846607</v>
+        <v>0.2914228457278596</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>213</v>
@@ -8245,19 +8245,19 @@
         <v>93757</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>81281</v>
+        <v>82912</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>106338</v>
+        <v>106135</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2165896504298791</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1877688454493135</v>
+        <v>0.1915366669828083</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.245654032099916</v>
+        <v>0.2451838054177387</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>169258</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>159084</v>
+        <v>160040</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>176433</v>
+        <v>176660</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8229809752226125</v>
+        <v>0.8229809752226127</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7735108293960654</v>
+        <v>0.7781588163608472</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8578677282005932</v>
+        <v>0.8589709319496392</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>342</v>
@@ -8295,19 +8295,19 @@
         <v>169864</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>161211</v>
+        <v>160999</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>178031</v>
+        <v>178197</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7475927648141821</v>
+        <v>0.7475927648141819</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7095098037153393</v>
+        <v>0.7085771542721403</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7835357089712054</v>
+        <v>0.7842649687075088</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>558</v>
@@ -8316,19 +8316,19 @@
         <v>339122</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>326541</v>
+        <v>326744</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>351598</v>
+        <v>349967</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.783410349570121</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.754345967900084</v>
+        <v>0.7548161945822611</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8122311545506866</v>
+        <v>0.8084633330171914</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>72786</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61346</v>
+        <v>61614</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>84387</v>
+        <v>86046</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2688743477154824</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2266145001534504</v>
+        <v>0.2276026001451625</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3117291453075561</v>
+        <v>0.3178562574646705</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>152</v>
@@ -8441,19 +8441,19 @@
         <v>62430</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53049</v>
+        <v>53282</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71461</v>
+        <v>72473</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2367031104727743</v>
+        <v>0.2367031104727742</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2011330330017617</v>
+        <v>0.2020189258169037</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2709440136208077</v>
+        <v>0.274780080796911</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>289</v>
@@ -8462,19 +8462,19 @@
         <v>135217</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>121773</v>
+        <v>120304</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>150760</v>
+        <v>151031</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2529981052701457</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2278440104483888</v>
+        <v>0.2250953916391513</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2820815067610468</v>
+        <v>0.2825885791920162</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>197921</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>186320</v>
+        <v>184661</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>209361</v>
+        <v>209093</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7311256522845178</v>
+        <v>0.7311256522845176</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6882708546924441</v>
+        <v>0.6821437425353294</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.77338549984655</v>
+        <v>0.7723973998548375</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>308</v>
@@ -8512,19 +8512,19 @@
         <v>201320</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>192289</v>
+        <v>191277</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>210701</v>
+        <v>210468</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7632968895272259</v>
+        <v>0.7632968895272256</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7290559863791923</v>
+        <v>0.7252199192030889</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7988669669982383</v>
+        <v>0.7979810741830963</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>542</v>
@@ -8533,19 +8533,19 @@
         <v>399240</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>383697</v>
+        <v>383426</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>412684</v>
+        <v>414153</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7470018947298542</v>
+        <v>0.7470018947298543</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7179184932389532</v>
+        <v>0.7174114208079837</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7721559895516112</v>
+        <v>0.7749046083608486</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>130503</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>110941</v>
+        <v>111522</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>153685</v>
+        <v>153396</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1813334205212103</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1541516439807559</v>
+        <v>0.1549591802391389</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2135436065053564</v>
+        <v>0.2131425927927267</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>228</v>
@@ -8658,19 +8658,19 @@
         <v>157926</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>139146</v>
+        <v>139240</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>179035</v>
+        <v>176850</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2045517679142937</v>
+        <v>0.2045517679142936</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.180227792832814</v>
+        <v>0.1803494206990274</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2318937113644856</v>
+        <v>0.2290631255992638</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>362</v>
@@ -8679,19 +8679,19 @@
         <v>288429</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>257995</v>
+        <v>258373</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>315763</v>
+        <v>315923</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1933501502718771</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1729482439748907</v>
+        <v>0.1732018936913251</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2116739244950571</v>
+        <v>0.2117812105440134</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>589184</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>566002</v>
+        <v>566291</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>608746</v>
+        <v>608165</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8186665794787898</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7864563934946437</v>
+        <v>0.7868574072072732</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8458483560192434</v>
+        <v>0.845040819760861</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>732</v>
@@ -8729,19 +8729,19 @@
         <v>614131</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>593022</v>
+        <v>595207</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>632911</v>
+        <v>632817</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7954482320857063</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7681062886355143</v>
+        <v>0.7709368744007362</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.819772207167186</v>
+        <v>0.8196505793009726</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1197</v>
@@ -8750,19 +8750,19 @@
         <v>1203315</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1175981</v>
+        <v>1175821</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1233749</v>
+        <v>1233371</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8066498497281227</v>
+        <v>0.8066498497281229</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7883260755049429</v>
+        <v>0.7882187894559866</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8270517560251092</v>
+        <v>0.8267981063086748</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>140046</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>121115</v>
+        <v>119777</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>160649</v>
+        <v>162845</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1754799767196995</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1517594661483885</v>
+        <v>0.15008321556396</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2012959516045867</v>
+        <v>0.2040481914903053</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>271</v>
@@ -8875,19 +8875,19 @@
         <v>175791</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>157148</v>
+        <v>156734</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>195058</v>
+        <v>196136</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2117951502858929</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1893335834395093</v>
+        <v>0.1888345629992378</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2350081810236672</v>
+        <v>0.2363068454869859</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>453</v>
@@ -8896,19 +8896,19 @@
         <v>315837</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>288573</v>
+        <v>287391</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>342578</v>
+        <v>345392</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1939937132617093</v>
+        <v>0.1939937132617094</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1772474057098917</v>
+        <v>0.1765218097054093</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2104185091512884</v>
+        <v>0.2121469856598594</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>658026</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>637423</v>
+        <v>635227</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>676957</v>
+        <v>678295</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8245200232803005</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7987040483954131</v>
+        <v>0.7959518085096947</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8482405338516112</v>
+        <v>0.8499167844360401</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>789</v>
@@ -8946,19 +8946,19 @@
         <v>654215</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>634948</v>
+        <v>633870</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>672858</v>
+        <v>673272</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7882048497141072</v>
+        <v>0.7882048497141073</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7649918189763332</v>
+        <v>0.7636931545130143</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8106664165604909</v>
+        <v>0.811165437000762</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1369</v>
@@ -8967,19 +8967,19 @@
         <v>1312241</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1285500</v>
+        <v>1282686</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1339505</v>
+        <v>1340687</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8060062867382907</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.789581490848711</v>
+        <v>0.7878530143401407</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8227525942901081</v>
+        <v>0.8234781902945908</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>663080</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>617980</v>
+        <v>622317</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>707135</v>
+        <v>709888</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.187796010631028</v>
+        <v>0.1877960106310279</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1750227934358431</v>
+        <v>0.1762513565262139</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2002732370917117</v>
+        <v>0.2010529655499251</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1388</v>
@@ -9092,19 +9092,19 @@
         <v>766222</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>726167</v>
+        <v>725735</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>801713</v>
+        <v>804487</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2052759760340954</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1945448447457685</v>
+        <v>0.1944291555416998</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2147840256747564</v>
+        <v>0.21552720684233</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2247</v>
@@ -9113,19 +9113,19 @@
         <v>1429302</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1370175</v>
+        <v>1372679</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1486465</v>
+        <v>1487606</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.1967788046879843</v>
+        <v>0.1967788046879842</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1886385343941576</v>
+        <v>0.1889832158006785</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2046487360578197</v>
+        <v>0.2048057457887411</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2867772</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2823717</v>
+        <v>2820964</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2912872</v>
+        <v>2908535</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8122039893689721</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7997267629082884</v>
+        <v>0.7989470344500749</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8249772065641569</v>
+        <v>0.8237486434737857</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3972</v>
@@ -9163,19 +9163,19 @@
         <v>2966423</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2930932</v>
+        <v>2928158</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3006478</v>
+        <v>3006910</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7947240239659045</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7852159743252437</v>
+        <v>0.7844727931576699</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8054551552542318</v>
+        <v>0.8055708444583004</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6487</v>
@@ -9184,19 +9184,19 @@
         <v>5834195</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5777032</v>
+        <v>5775891</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5893322</v>
+        <v>5890818</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8032211953120159</v>
+        <v>0.8032211953120157</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7953512639421804</v>
+        <v>0.7951942542112589</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8113614656058422</v>
+        <v>0.8110167841993212</v>
       </c>
     </row>
     <row r="30">
